--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091786</v>
+        <v>9630586.081252644</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091786</v>
+        <v>9630586.081252644</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1844.865867520585</v>
+        <v>112494.5620451748</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1844.865867520585</v>
+        <v>112494.5620451748</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112272687.23767</v>
+        <v>45415743.59624076</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9217.541107273688</v>
+        <v>1007848.173051563</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17830.68128329564</v>
+        <v>1920896.527292694</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26443.82145931758</v>
+        <v>2833944.881533826</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35377.28911734526</v>
+        <v>3757867.0781992</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44256.1143511305</v>
+        <v>4670915.432440332</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53134.93958491574</v>
+        <v>5583963.786681463</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62013.76481870098</v>
+        <v>6497012.140922591</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70892.59005248621</v>
+        <v>7410060.495163718</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80106.01351427179</v>
+        <v>8317670.980332537</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89264.79455181488</v>
+        <v>9214407.623077115</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98302.08281590314</v>
+        <v>10127455.97731825</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>107126.2656254459</v>
+        <v>11029630.48913514</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116005.0908592312</v>
+        <v>11942678.84337628</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>124883.9160930164</v>
+        <v>12855727.19761742</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>133762.7413268017</v>
+        <v>13768775.55185856</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>311.0000000002305</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>38.99999999977024</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
